--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150440.630855304</v>
+        <v>1147921.962440825</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673445</v>
+        <v>603248.4937673412</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>341.8022502498036</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>356.1218472568453</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.90659665391234</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>42.69787603752427</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>102.3533088676927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>293.1133431213473</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.41653965146556</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20.47554896769155</v>
       </c>
       <c r="F8" t="n">
-        <v>117.0602861317418</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6134037477801</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>224.7935084845903</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806771</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>97.97552699114077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458119</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>9.753166794035025</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>79.00824149146318</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>75.20407961036197</v>
+        <v>244.8183518893258</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352881</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503563</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223741</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>93.42785872950378</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000783</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>33.82891891787478</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3062202753123</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>66.24118421664517</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>125.2700607443046</v>
       </c>
       <c r="C37" t="n">
-        <v>29.95900124023777</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4021082756239</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226515</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>142.9017229193758</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5813113004292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.556048344953</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="C2" t="n">
-        <v>1218.593531404541</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="D2" t="n">
-        <v>860.327832797791</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="E2" t="n">
-        <v>474.5395801995467</v>
+        <v>1192.384522157329</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>781.3986173677215</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664336</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320765</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320765</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320765</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.556048344953</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193033</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>777.606906050775</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800312</v>
+        <v>1936.919803621121</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>1767.983620693214</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>1617.866981280878</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>1469.953887698485</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>1323.063940200575</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>1155.077475508853</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>1006.33857737236</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1294.10479803527</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U4" t="n">
-        <v>1004.986460539108</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="V4" t="n">
-        <v>750.3019723332208</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="W4" t="n">
-        <v>460.8848022962601</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="X4" t="n">
-        <v>232.8952513982428</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>2118.56826845136</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.481876182944</v>
+        <v>1591.095540256642</v>
       </c>
       <c r="C5" t="n">
-        <v>922.5193592425328</v>
+        <v>1222.13302331623</v>
       </c>
       <c r="D5" t="n">
-        <v>922.5193592425328</v>
+        <v>1222.13302331623</v>
       </c>
       <c r="E5" t="n">
-        <v>536.7311066442885</v>
+        <v>836.3447707179862</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>425.3588659283786</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>413.6945196930716</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,25 +4565,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182944</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182944</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,19 +4647,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>131.4655134886754</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322055</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.4655134886754</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4077790033366</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="E8" t="n">
-        <v>939.4077790033366</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4996,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2125.660783237691</v>
+        <v>1925.398164665177</v>
       </c>
       <c r="C11" t="n">
-        <v>1756.69826629728</v>
+        <v>1582.354322495702</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.432567690529</v>
+        <v>1582.354322495702</v>
       </c>
       <c r="E11" t="n">
-        <v>1012.644315092285</v>
+        <v>1196.566069897458</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078507</v>
+        <v>785.5801651078502</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374978</v>
+        <v>371.0047194374973</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469247</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469247</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386843</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420344</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301228</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878115</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765433</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687111</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856295</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882254</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234605</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455675</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455659</v>
+        <v>3622.786021971455</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088268</v>
+        <v>3369.295305604063</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744697</v>
+        <v>3038.232418260493</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474583</v>
+        <v>2685.463762990378</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.800115213503</v>
+        <v>2311.998004729298</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.660783237691</v>
+        <v>2311.998004729298</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503051</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792127</v>
+        <v>196.8120623792137</v>
       </c>
       <c r="K12" t="n">
-        <v>477.16213223765</v>
+        <v>477.162132237652</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649594</v>
+        <v>900.4499396649628</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1413.763713908854</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259915</v>
+        <v>1955.072021259922</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125664</v>
+        <v>2428.043574125672</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.043574125664</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.223275514337</v>
+        <v>245.9909637481495</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864302</v>
+        <v>245.9909637481494</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>245.9909637481493</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>245.9909637481493</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937911</v>
+        <v>245.9909637481493</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.5110662246921</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600406</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457715</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888935</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779224</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542997</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715853</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082526</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.90904355111</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014272</v>
+        <v>2076.102739014278</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370161</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370155</v>
+        <v>1667.488017920207</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370155</v>
+        <v>1378.397311360496</v>
       </c>
       <c r="V13" t="n">
-        <v>1633.617587164268</v>
+        <v>1123.712823154609</v>
       </c>
       <c r="W13" t="n">
-        <v>1557.653870386124</v>
+        <v>876.4215586199366</v>
       </c>
       <c r="X13" t="n">
-        <v>1329.664319488107</v>
+        <v>648.4320077219193</v>
       </c>
       <c r="Y13" t="n">
-        <v>1108.871740344577</v>
+        <v>427.6394285783891</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965431</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708296</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.260941820541</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.19805447697</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.429399206856</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945776</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969964</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894393</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220726</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941656</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.375774410167</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2139.299560724894</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1884.615072519007</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1595.197902482046</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,22 +5513,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,13 +5552,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5701,22 +5701,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>741.8431516380879</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>572.906968710181</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>422.7903292978451</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>274.8772357154519</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>127.9872882175417</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683276</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,7 +6251,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138413</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6625,10 +6625,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098236</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819167</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876686</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179083</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7160,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098234</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819165</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695806</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871876</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892772</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041571</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>658.9255961109955</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>840.5740609412352</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098238</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819169</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871881</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041576</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143859</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25.65948802322748</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>182.0825372571211</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>22.60777203237984</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034023</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>211.318918726229</v>
+        <v>41.70464644726519</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729081</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.29152613729005</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>84.16945386597494</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>132.2817966595334</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891659</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>131.6952193743937</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>68.52575990662497</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>113.5907959652921</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.524138292268</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>54.5619194376327</v>
       </c>
       <c r="C37" t="n">
-        <v>137.2878198583901</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462289</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.89260457059981</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.27114962944327</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846222</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>143.6212754172152</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0033420516656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32.89260457059981</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874580.1004936588</v>
+        <v>874580.1004936604</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>951687.9471848592</v>
+        <v>951687.947184859</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459296</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876642</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26332,28 +26332,28 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217535</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185153</v>
+        <v>143114.139218519</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051385</v>
+        <v>166521.3471051347</v>
       </c>
       <c r="G3" t="n">
         <v>11167.2362355788</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115322</v>
+        <v>37377.32855115415</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848917</v>
+        <v>43782.40655848831</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9238.079399450547</v>
+        <v>9238.079399450549</v>
       </c>
       <c r="F4" t="n">
         <v>9330.667735531239</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214737</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359039</v>
+        <v>-872316.8120359038</v>
       </c>
       <c r="C6" t="n">
         <v>242434.9715400157</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.70154212401</v>
+        <v>83013.70154212414</v>
       </c>
       <c r="E6" t="n">
-        <v>185361.3008075505</v>
+        <v>185151.3365637024</v>
       </c>
       <c r="F6" t="n">
-        <v>185546.7253373596</v>
+        <v>185500.8203417976</v>
       </c>
       <c r="G6" t="n">
-        <v>342482.3284055111</v>
+        <v>342447.5904800755</v>
       </c>
       <c r="H6" t="n">
-        <v>353649.5646410899</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="I6" t="n">
-        <v>353649.5646410899</v>
+        <v>353614.8267156542</v>
       </c>
       <c r="J6" t="n">
-        <v>186044.3868311074</v>
+        <v>186009.6489056718</v>
       </c>
       <c r="K6" t="n">
-        <v>353649.5646410899</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="L6" t="n">
-        <v>305355.5946328992</v>
+        <v>305320.8567074635</v>
       </c>
       <c r="M6" t="n">
-        <v>316272.2360899367</v>
+        <v>316237.4981645001</v>
       </c>
       <c r="N6" t="n">
-        <v>309867.1580826006</v>
+        <v>309832.420157166</v>
       </c>
       <c r="O6" t="n">
-        <v>350626.2666638651</v>
+        <v>350591.5287384297</v>
       </c>
       <c r="P6" t="n">
-        <v>353649.5646410896</v>
+        <v>353614.8267156543</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494559</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.3883278086513</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012603</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>145.870781221827</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063547</v>
+        <v>149.9868724063587</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173552</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364165</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063547</v>
+        <v>149.9868724063584</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173554</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364165</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063547</v>
+        <v>149.9868724063587</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173552</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364165</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>65.07379549190779</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>55.4258555161087</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>75.88999854998822</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>178.0508199596877</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>304.5227368740187</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7.905209441058105</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>25.38005555243502</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.4154405304718</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>361.4548211045702</v>
       </c>
       <c r="F8" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.503922614583689e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-4.988010005035903e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.827164546535093e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>4.873046301485659</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>49.90608543509002</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380261</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307188</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>619.8697634726069</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>769.0032542216989</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>855.6642913857444</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>869.5098341898406</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>821.0534800294425</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>700.7501494615152</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>526.2341787895598</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356988</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951046</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475348</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188527</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969428</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191527</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>89.76921320596497</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783046</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202552</v>
+        <v>421.0233277202563</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256412</v>
+        <v>566.1178216256427</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>660.6327957845343</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147137</v>
+        <v>678.1177801147154</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431806</v>
+        <v>620.3452877431823</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>266.1421801896113</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.1495468613113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>48.42963285697596</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780659</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190414</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236089</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737179</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691805</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836915</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619747</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509182</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263717</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973101</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050066</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761901</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916784</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>98.2851498857063</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.0939410292962</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>9.339672552826924</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765141</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>455.6067946997425</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>153.7812479945281</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34469,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578707</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>577.7882979947784</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040326</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>399.7799124276264</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517117</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>625.3180581584717</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>640.0967705932496</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>590.9552686077558</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>469.5171537062457</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>303.9284889151103</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>90.52095692156666</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>119.4959557116379</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458962</v>
+        <v>283.1818887458973</v>
       </c>
       <c r="L12" t="n">
-        <v>427.563441845767</v>
+        <v>427.5634418457685</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625159</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313804</v>
+        <v>546.7760680313821</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987362</v>
+        <v>477.7490432987379</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>132.1677727752811</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1677727752898</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>61.18259316701872</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360918</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112343</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882122</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>378.6315512765387</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190463</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410836</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>96.87566713998397</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>313.4727607777242</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>11.18500355008366</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
